--- a/counts/ALS Mice/experimental/results/control_3-tg_1/KEGG.xlsx
+++ b/counts/ALS Mice/experimental/results/control_3-tg_1/KEGG.xlsx
@@ -50,7 +50,7 @@
     <t>4/12</t>
   </si>
   <si>
-    <t>90/8092</t>
+    <t>90/8116</t>
   </si>
   <si>
     <t>12842/12824/12832/12814</t>
@@ -151,13 +151,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>6.617350916929861E-6</v>
+        <v>6.540735454128675E-6</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9778079126184374E-4</v>
+        <v>2.943330954357904E-4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.716596692213311E-4</v>
+        <v>2.6851440285370355E-4</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
